--- a/Proyect/Empresas.xlsx
+++ b/Proyect/Empresas.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\OneDrive\Documentos\GitHub\Proyecto-Metodolog-a-\Proyect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose\Documents\GitHub\Proyecto-Metodolog-a-\Proyect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0374EFB1-2466-4648-A655-89127E18CB4F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{3D936960-E8E3-4677-A435-7ABB58E4D4B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nombre</t>
   </si>
@@ -58,12 +57,21 @@
   </si>
   <si>
     <t>idEmpresa</t>
+  </si>
+  <si>
+    <t>ENT-001</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HPF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,7 +132,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{B168A4A2-FB1F-4F5B-BF75-5725E796DAB8}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -436,21 +444,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A5C3E1-EC4B-415C-B116-815FE6A096B9}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -467,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -484,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -498,6 +508,23 @@
         <v>85770193</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>58966978</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
